--- a/Asset/table/adventureStates.xlsx
+++ b/Asset/table/adventureStates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\share\Project-2\Asset\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\Project-2\Asset\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF25A6D-8C1C-4E05-A45B-2615A5AD6E4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38C9F2B-8A3E-4632-A493-68CE1DB4D6E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adventureStates" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -48,9 +48,6 @@
     <t>CollisionFilename</t>
   </si>
   <si>
-    <t>Splash</t>
-  </si>
-  <si>
     <t>PNGRoom</t>
   </si>
   <si>
@@ -103,17 +100,116 @@
   </si>
   <si>
     <t>Boss_Office</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Asset\Map\Start.png</t>
+  </si>
+  <si>
+    <t>Asset\Map\Instruction.png</t>
+  </si>
+  <si>
+    <t>Asset\Map\House.png</t>
+  </si>
+  <si>
+    <t>Asset\Map\Company_down.png</t>
+  </si>
+  <si>
+    <t>L1_Room</t>
+  </si>
+  <si>
+    <t>Asset\Map\Company_Elevator.png</t>
+  </si>
+  <si>
+    <t>L2_Room</t>
+  </si>
+  <si>
+    <t>Asset\Map\L2.png</t>
+  </si>
+  <si>
+    <t>Office_room</t>
+  </si>
+  <si>
+    <t>Asset\Map\Office.png</t>
+  </si>
+  <si>
+    <t>L2M1_room</t>
+  </si>
+  <si>
+    <t>Asset\Map\L2_MAZE1.png</t>
+  </si>
+  <si>
+    <t>L2M2_room</t>
+  </si>
+  <si>
+    <t>Asset\Map\L2_MAZE2.png</t>
+  </si>
+  <si>
+    <t>Asset\Map\L2_MAZE3.png</t>
+  </si>
+  <si>
+    <t>L2M4_room</t>
+  </si>
+  <si>
+    <t>Asset\Map\L2_MAZE4.png</t>
+  </si>
+  <si>
+    <t>Asset\Map\L3.png</t>
+  </si>
+  <si>
+    <t>Asset\Map\L3_MAZE1.png</t>
+  </si>
+  <si>
+    <t>L3M2_room</t>
+  </si>
+  <si>
+    <t>Asset\Map\L3_MAZE2.png</t>
+  </si>
+  <si>
+    <t>L3M3_room</t>
+  </si>
+  <si>
+    <t>Asset\Map\L3_MAZE3.png</t>
+  </si>
+  <si>
+    <t>L3M4_room</t>
+  </si>
+  <si>
+    <t>Asset\Map\L3_MAZE4.png</t>
+  </si>
+  <si>
+    <t>Front_room</t>
+  </si>
+  <si>
+    <t>Asset\Map\Front_door.png</t>
+  </si>
+  <si>
+    <t>Boss_Room</t>
+  </si>
+  <si>
+    <t>Asset\Map\Boss_Office.png</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>END_Room</t>
+  </si>
+  <si>
+    <t>Asset\Map\Back.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -121,7 +217,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -129,7 +225,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -138,7 +234,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -147,7 +243,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -156,7 +252,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -164,7 +260,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -172,7 +268,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -180,7 +276,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -188,7 +284,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -197,7 +293,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -206,7 +302,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -214,7 +310,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -223,7 +319,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -231,7 +327,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -240,7 +336,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,7 +345,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -257,14 +353,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -695,10 +791,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1054,305 +1151,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D4" si="0">"Asset\Map\"&amp;B2&amp;".png"</f>
-        <v>Asset\Map\Splash.png</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>"Asset\Map\collision\" &amp; B5 &amp;"_cl.csv"</f>
+        <v>Asset\Map\collision\Company_down_cl.csv</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" ref="E6:E19" si="0">"Asset\Map\collision\" &amp; B6 &amp;"_cl.csv"</f>
+        <v>Asset\Map\collision\Company_Elevator_cl.csv</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Asset\Map\collision\L2_cl.csv</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D3" t="str">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Asset\Map\Instructions.png</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+        <v>Asset\Map\collision\Office_cl.csv</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Asset\Map\collision\L2_MAZE1_cl.csv</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="str">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Asset\Map\House.png</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+        <v>Asset\Map\collision\L2_MAZE2_cl.csv</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="str">
-        <f>"Asset\Map\"&amp;B5&amp;".png"</f>
-        <v>Asset\Map\Company_down.png</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Asset\Map\collision\L2_MAZE3_cl.csv</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" ref="D6:D19" si="1">"Asset\Map\"&amp;B6&amp;".png"</f>
-        <v>Asset\Map\Company_Elevator.png</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Asset\Map\collision\L2_MAZE4_cl.csv</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Asset\Map\collision\L3_cl.csv</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset\Map\L2.png</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset\Map\Office.png</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Asset\Map\collision\L3_MAZE1_cl.csv</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset\Map\L2_MAZE1.png</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Asset\Map\collision\L3_MAZE2_cl.csv</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset\Map\L2_MAZE2.png</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Asset\Map\collision\L3_MAZE3_cl.csv</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset\Map\L2_MAZE3.png</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Asset\Map\collision\L3_MAZE4_cl.csv</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset\Map\L2_MAZE4.png</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Asset\Map\collision\Front_door_cl.csv</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset\Map\L3.png</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Asset\Map\collision\Boss_Office_cl.csv</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset\Map\L3_MAZE1.png</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset\Map\L3_MAZE2.png</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset\Map\L3_MAZE3.png</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset\Map\L3_MAZE4.png</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset\Map\Front_door.png</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset\Map\Boss_Office.png</v>
-      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
